--- a/SGP_Mitra-main/app/data/Clinical_Data/Clinical Exam Half Dataset.xlsx
+++ b/SGP_Mitra-main/app/data/Clinical_Data/Clinical Exam Half Dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Smit\Desktop\DESKTOP\6th sem\New SGP\Mitra_Dhruvil_Branch\SGP_Mitra\SGP_Mitra-main\app\data\Clinical_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64654A18-B56A-40C7-8662-DC233F2ACD91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C01F2077-3C3D-44A9-9593-9107C62BED49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="3240" windowWidth="17280" windowHeight="8880" xr2:uid="{9D958894-7153-4551-9A41-0E3E46A9D7E3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9D958894-7153-4551-9A41-0E3E46A9D7E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="107">
   <si>
     <t>ID</t>
   </si>
@@ -57,9 +57,6 @@
     <t xml:space="preserve"> Little interest or pleasure in doing things </t>
   </si>
   <si>
-    <t>0-Not at all, 1-Several Days , 2-More than half days, 3-Nearly Every Day</t>
-  </si>
-  <si>
     <t xml:space="preserve">Feeling down, depressed, or hopeless </t>
   </si>
   <si>
@@ -177,9 +174,6 @@
     <t>DASS-21</t>
   </si>
   <si>
-    <t>Any reminder brought back feelings about it,</t>
-  </si>
-  <si>
     <t>I had trouble staying asleep</t>
   </si>
   <si>
@@ -243,21 +237,9 @@
     <t>I tried not to talk about it</t>
   </si>
   <si>
-    <t>PHQ-9 (Patient Health Questions)</t>
-  </si>
-  <si>
-    <t>GAD-7 (General Anxiety Disorder)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DASS-21 (Depression , Anxiety and Stress Scale) </t>
-  </si>
-  <si>
     <t>IES-R (Impact of Events Scale)</t>
   </si>
   <si>
-    <t>0=Not at all , 1=A little Bit, 2=Moderately, 3=Quite a Bit, 4=Extremely</t>
-  </si>
-  <si>
     <t>I have felt cheerful in good spirits.</t>
   </si>
   <si>
@@ -276,9 +258,6 @@
     <t>WHO-5 (Well Being Index</t>
   </si>
   <si>
-    <t>0-At no Time, 1-Some of the time,2-Less than half of the time, 3-More than half time, 4-Most of the time, 5-All of the time</t>
-  </si>
-  <si>
     <t xml:space="preserve">I feel emotionally drained by my work. </t>
   </si>
   <si>
@@ -354,17 +333,35 @@
     <t>MBI-C</t>
   </si>
   <si>
-    <t>0-Never, 1-Few Times Per Year, 2-Once a month, 3-Few Times Per Month, 4-Once a week , 5-Few Times a week , 6-Everyday</t>
-  </si>
-  <si>
     <t>AssessmentQuestion</t>
+  </si>
+  <si>
+    <t>Any reminder brought back feelings about it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAD-7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DASS-21 </t>
+  </si>
+  <si>
+    <t>0-3</t>
+  </si>
+  <si>
+    <t>0-4</t>
+  </si>
+  <si>
+    <t>0-5</t>
+  </si>
+  <si>
+    <t>0-6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -378,6 +375,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -387,7 +389,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -395,14 +397,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -729,8 +749,8 @@
     <col min="1" max="2" width="8.88671875" style="1"/>
     <col min="3" max="3" width="15.88671875" style="1" customWidth="1"/>
     <col min="4" max="4" width="22.21875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.21875" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.109375" style="1" customWidth="1"/>
     <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
@@ -746,19 +766,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -766,24 +786,24 @@
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
@@ -791,41 +811,41 @@
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="72" x14ac:dyDescent="0.3">
@@ -833,13 +853,13 @@
         <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
@@ -847,13 +867,13 @@
         <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
@@ -861,13 +881,13 @@
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
@@ -875,97 +895,97 @@
         <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="F10" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -973,41 +993,41 @@
         <v>16</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="F17" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -1015,13 +1035,13 @@
         <v>19</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
@@ -1029,13 +1049,13 @@
         <v>20</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -1043,55 +1063,55 @@
         <v>21</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -1099,69 +1119,69 @@
         <v>25</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -1169,27 +1189,27 @@
         <v>30</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -1197,41 +1217,41 @@
         <v>32</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
@@ -1239,97 +1259,97 @@
         <v>35</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -1337,97 +1357,97 @@
         <v>42</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -1435,97 +1455,97 @@
         <v>49</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>51</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>52</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>53</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>54</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>55</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
@@ -1533,430 +1553,430 @@
         <v>56</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>57</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>58</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>59</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>60</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>61</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>62</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>63</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>64</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>65</v>
       </c>
       <c r="D66" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E66" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E66" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="F66" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>66</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>67</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>68</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>69</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>70</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>71</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>72</v>
       </c>
       <c r="D73" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E73" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E73" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="F73" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>73</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>74</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>75</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>76</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>77</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>78</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>79</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>80</v>
       </c>
       <c r="D81" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E81" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E81" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="F81" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>81</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>82</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>83</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>84</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>85</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>86</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>106</v>
